--- a/sydw/2020上/考点/0-考点.xlsx
+++ b/sydw/2020上/考点/0-考点.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>判断题</t>
   </si>
@@ -179,6 +180,141 @@
   </si>
   <si>
     <t>货币</t>
+  </si>
+  <si>
+    <t>中共一大</t>
+  </si>
+  <si>
+    <t>7.23-7.31</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>法租界</t>
+  </si>
+  <si>
+    <t>中共二大</t>
+  </si>
+  <si>
+    <t>7.16-7.23</t>
+  </si>
+  <si>
+    <t>英租界</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>6.12-6.20</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>1.11-1.22</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>4.27-5.9</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>6.18-7.11</t>
+  </si>
+  <si>
+    <t>莫斯科</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>4.23-6.11</t>
+  </si>
+  <si>
+    <t>延安</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>9.15-9.27</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>4.1-4.24</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>8.24-8.28</t>
+  </si>
+  <si>
+    <t>十一</t>
+  </si>
+  <si>
+    <t>8.12-8.18</t>
+  </si>
+  <si>
+    <t>十二</t>
+  </si>
+  <si>
+    <t>9.1-9.11</t>
+  </si>
+  <si>
+    <t>十三</t>
+  </si>
+  <si>
+    <t>10.25-11.1</t>
+  </si>
+  <si>
+    <t>十四</t>
+  </si>
+  <si>
+    <t>10.12-10.18</t>
+  </si>
+  <si>
+    <t>十五</t>
+  </si>
+  <si>
+    <t>9.12-9.18</t>
+  </si>
+  <si>
+    <t>十六</t>
+  </si>
+  <si>
+    <t>11.8-11.14</t>
+  </si>
+  <si>
+    <t>十七</t>
+  </si>
+  <si>
+    <t>10.15-10.21</t>
+  </si>
+  <si>
+    <t>十八</t>
+  </si>
+  <si>
+    <t>十九大</t>
+  </si>
+  <si>
+    <t>10.18-10.24</t>
   </si>
 </sst>
 </file>
@@ -215,6 +351,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,8 +434,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,104 +473,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,187 +489,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +680,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,6 +733,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,54 +780,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -652,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="C1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1395,4 +1531,350 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D4:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9">
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>1921</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>1922</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>1923</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>1925</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>1927</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>1928</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <v>1945</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>1956</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>1969</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>1973</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14">
+        <v>1977</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>1982</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16">
+        <v>1987</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>1992</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18">
+        <v>1997</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19">
+        <v>2002</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>2007</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21">
+        <v>2012</v>
+      </c>
+      <c r="F21">
+        <v>11.8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22">
+        <v>2017</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sydw/2020上/考点/0-考点.xlsx
+++ b/sydw/2020上/考点/0-考点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>判断题</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>行政法</t>
+  </si>
+  <si>
+    <t>诉讼法</t>
   </si>
   <si>
     <t>社会公德</t>
@@ -322,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -343,6 +346,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -350,8 +354,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +400,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -373,15 +437,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,60 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -464,19 +476,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -489,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +683,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,74 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,13 +1285,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:N63"/>
+  <dimension ref="C1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
@@ -1377,30 +1380,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
-      <c r="H26" t="s">
+    <row r="25" spans="8:8">
+      <c r="H25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
-      <c r="G27" t="s">
+    <row r="27" spans="8:8">
+      <c r="H27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
-      <c r="H30" t="s">
+    <row r="28" spans="7:7">
+      <c r="G28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="7:8">
-      <c r="G31" t="s">
+    <row r="31" spans="8:8">
+      <c r="H31" t="s">
         <v>23</v>
       </c>
-      <c r="H31" t="s">
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="8:8">
       <c r="H32" t="s">
         <v>25</v>
       </c>
@@ -1410,21 +1413,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" t="s">
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="7:8">
-      <c r="G36" t="s">
+    <row r="36" spans="8:8">
+      <c r="H36" t="s">
         <v>28</v>
       </c>
-      <c r="H36" t="s">
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" t="s">
+      <c r="H37" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1433,24 +1436,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="7:14">
-      <c r="G40" t="s">
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
         <v>32</v>
       </c>
-      <c r="H40" t="s">
+    </row>
+    <row r="41" spans="7:14">
+      <c r="G41" t="s">
         <v>33</v>
       </c>
-      <c r="K40" t="s">
+      <c r="H41" t="s">
         <v>34</v>
       </c>
-      <c r="M40" t="s">
+      <c r="K41" t="s">
         <v>35</v>
       </c>
-      <c r="N40" t="s">
+      <c r="M41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="14:14">
       <c r="N41" t="s">
         <v>37</v>
       </c>
@@ -1460,56 +1463,56 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="11:14">
-      <c r="K43" t="s">
+    <row r="43" spans="14:14">
+      <c r="N43" t="s">
         <v>39</v>
       </c>
-      <c r="N43" t="s">
+    </row>
+    <row r="44" spans="11:14">
+      <c r="K44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="14:14">
       <c r="N44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="11:11">
-      <c r="K47" t="s">
+    <row r="45" spans="14:14">
+      <c r="N45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="9:11">
-      <c r="I55" t="s">
+    <row r="48" spans="11:11">
+      <c r="K48" t="s">
         <v>43</v>
       </c>
-      <c r="K55" t="s">
+    </row>
+    <row r="56" spans="9:11">
+      <c r="I56" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="7:11">
-      <c r="G56" t="s">
+      <c r="K56" t="s">
         <v>45</v>
       </c>
-      <c r="H56" t="s">
+    </row>
+    <row r="57" spans="7:11">
+      <c r="G57" t="s">
         <v>46</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H57" t="s">
         <v>47</v>
       </c>
-      <c r="K56" t="s">
+      <c r="I57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="9:11">
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>49</v>
       </c>
-      <c r="K57" t="s">
+    </row>
+    <row r="58" spans="9:11">
+      <c r="I58" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1518,12 +1521,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="8:9">
-      <c r="H63" t="s">
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
         <v>53</v>
       </c>
-      <c r="I63" t="s">
+    </row>
+    <row r="64" spans="8:9">
+      <c r="H64" t="s">
         <v>54</v>
+      </c>
+      <c r="I64" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1538,313 +1546,313 @@
   <sheetPr/>
   <dimension ref="D4:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:9">
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>1921</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>1922</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="4:8">
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>1923</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>1925</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>1927</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="D9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>1928</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="D10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>1945</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="D11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>1956</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="D12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>1969</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12">
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>1973</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="D14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>1977</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="D15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>1982</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="D16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16">
         <v>1987</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="4:8">
       <c r="D17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>1992</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="4:8">
       <c r="D18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>1997</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <v>2002</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="4:8">
       <c r="D20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20">
         <v>2007</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="4:8">
       <c r="D21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21">
         <v>2012</v>
@@ -1853,24 +1861,24 @@
         <v>11.8</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="4:8">
       <c r="D22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <v>2017</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/sydw/2020上/考点/0-考点.xlsx
+++ b/sydw/2020上/考点/0-考点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>判断题</t>
   </si>
@@ -65,19 +65,34 @@
     <t>法律</t>
   </si>
   <si>
+    <t>三大法</t>
+  </si>
+  <si>
     <t>民法</t>
   </si>
   <si>
+    <t>民法典</t>
+  </si>
+  <si>
     <t>婚姻法/继承法</t>
   </si>
   <si>
+    <t>劳动法</t>
+  </si>
+  <si>
+    <t>民事诉讼法</t>
+  </si>
+  <si>
     <t>刑法</t>
   </si>
   <si>
+    <t>刑事诉讼法</t>
+  </si>
+  <si>
     <t>行政法</t>
   </si>
   <si>
-    <t>诉讼法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>社会公德</t>
@@ -110,13 +125,19 @@
     <t>基本原理</t>
   </si>
   <si>
+    <t>思想/政治</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
     <t>马列主义</t>
   </si>
   <si>
     <t>毛泽东思想</t>
   </si>
   <si>
-    <t>思想</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>中国特色社会主义理论体系</t>
@@ -134,6 +155,9 @@
     <t>解放思想，实事求是</t>
   </si>
   <si>
+    <t>邓小平</t>
+  </si>
+  <si>
     <t>两手抓，两手硬</t>
   </si>
   <si>
@@ -143,19 +167,34 @@
     <t>三个有利于</t>
   </si>
   <si>
+    <t>江泽民</t>
+  </si>
+  <si>
+    <t>三个代表</t>
+  </si>
+  <si>
     <t>社会主义的本质</t>
   </si>
   <si>
+    <t>胡锦涛</t>
+  </si>
+  <si>
+    <t>科学发展观</t>
+  </si>
+  <si>
     <t>一国两制</t>
   </si>
   <si>
+    <t>习近平</t>
+  </si>
+  <si>
+    <t>新思想</t>
+  </si>
+  <si>
     <t>基本派别</t>
   </si>
   <si>
     <t>辩证唯物主义</t>
-  </si>
-  <si>
-    <t>马克思</t>
   </si>
   <si>
     <t>马克思主义哲学</t>
@@ -325,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -340,30 +379,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,7 +408,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +427,74 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,69 +514,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,19 +531,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,43 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,115 +699,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +727,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,15 +739,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,15 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -750,6 +769,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,17 +803,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,139 +842,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1285,10 +1327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:N64"/>
+  <dimension ref="C1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1359,182 +1401,256 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="7:13">
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" t="s">
+      <c r="J22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" t="s">
+      <c r="K22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" t="s">
+      <c r="M22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
-      <c r="H27" t="s">
+    <row r="23" spans="8:10">
+      <c r="H23" s="1"/>
+      <c r="J23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="7:7">
-      <c r="G28" t="s">
+    <row r="24" spans="8:9">
+      <c r="H24" s="1"/>
+      <c r="I24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
-      <c r="H31" t="s">
+    <row r="25" spans="8:10">
+      <c r="H25" s="1"/>
+      <c r="J25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="7:8">
-      <c r="G32" t="s">
+    <row r="26" spans="8:9">
+      <c r="H26" s="1"/>
+      <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="H32" t="s">
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" s="1"/>
+      <c r="J27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="8:8">
-      <c r="H33" t="s">
+    <row r="30" spans="8:8">
+      <c r="H30" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8">
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
       <c r="H37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
       <c r="H40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="7:14">
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K41" t="s">
         <v>35</v>
       </c>
-      <c r="M41" t="s">
+    </row>
+    <row r="42" spans="7:10">
+      <c r="G42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N41" t="s">
+      <c r="H42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="14:14">
-      <c r="N42" t="s">
+      <c r="J42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="14:14">
-      <c r="N43" t="s">
+    <row r="43" spans="7:10">
+      <c r="G43" s="1"/>
+      <c r="J43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="11:14">
-      <c r="K44" t="s">
+    <row r="44" spans="7:16">
+      <c r="G44" s="1"/>
+      <c r="H44" t="s">
         <v>40</v>
       </c>
-      <c r="N44" t="s">
+      <c r="J44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="14:14">
-      <c r="N45" t="s">
+      <c r="M44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="11:11">
-      <c r="K48" t="s">
+      <c r="O44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="9:11">
-      <c r="I56" t="s">
+      <c r="P44" t="s">
         <v>44</v>
       </c>
-      <c r="K56" t="s">
+    </row>
+    <row r="45" spans="7:16">
+      <c r="G45" s="1"/>
+      <c r="P45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="7:11">
-      <c r="G57" t="s">
+    <row r="46" spans="7:16">
+      <c r="G46" s="1"/>
+      <c r="H46" t="s">
         <v>46</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" t="s">
         <v>47</v>
       </c>
-      <c r="I57" t="s">
+    </row>
+    <row r="47" spans="7:16">
+      <c r="G47" s="1"/>
+      <c r="L47" t="s">
         <v>48</v>
       </c>
-      <c r="K57" t="s">
+      <c r="P47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="9:11">
-      <c r="I58" t="s">
+    <row r="48" spans="7:16">
+      <c r="G48" s="1"/>
+      <c r="H48" t="s">
         <v>50</v>
       </c>
-      <c r="K58" t="s">
+      <c r="I48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="9:9">
+      <c r="P48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="7:9">
+      <c r="G50" s="1"/>
+      <c r="H50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12">
+      <c r="G51" s="1"/>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9">
+      <c r="G52" s="1"/>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11">
       <c r="I59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9">
+        <v>58</v>
+      </c>
+      <c r="K59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="7:11">
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>60</v>
+      </c>
       <c r="I60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="8:9">
-      <c r="H64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="K60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11">
+      <c r="I61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9">
+      <c r="H67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G42:G52"/>
+    <mergeCell ref="H22:H27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1557,302 +1673,302 @@
   <sheetData>
     <row r="4" spans="4:9">
       <c r="D4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>1921</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="D5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>1922</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="4:8">
       <c r="D6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>1923</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>1925</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="D8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>1927</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="D9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>1928</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="D10" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>1945</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="D11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>1956</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="D12" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>1969</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G12">
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="D13" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>1973</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="D14" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>1977</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G14">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="D15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>1982</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="D16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E16">
         <v>1987</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G16">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="4:8">
       <c r="D17" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E17">
         <v>1992</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G17">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="4:8">
       <c r="D18" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>1997</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E19">
         <v>2002</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="4:8">
       <c r="D20" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>2007</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="4:8">
       <c r="D21" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E21">
         <v>2012</v>
@@ -1861,24 +1977,24 @@
         <v>11.8</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="4:8">
       <c r="D22" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>2017</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
